--- a/Learning/Chapter5_Deep_Learning_Tips/AlexNet archivelecture/Calculator-CNN-Archilecture.xlsx
+++ b/Learning/Chapter5_Deep_Learning_Tips/AlexNet archivelecture/Calculator-CNN-Archilecture.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\DeepLearning\Learning\Chapter5_Deep_Learning_Tips\AlexNet archivelecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A8EF31-7B37-4475-87F0-FC89EAA5ADCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D4D25-F653-4C88-BBB2-A8A9DFCD25C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4476" windowHeight="7956" xr2:uid="{69A33440-ABED-4531-AE44-6DB93E9FA257}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{69A33440-ABED-4531-AE44-6DB93E9FA257}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,6 +263,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,9 +291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07DCF50-8302-443E-BDB1-73178CDB88E0}">
   <dimension ref="A3:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,40 +714,40 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="M4" s="11" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="Q4" s="5" t="s">
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="U4" s="5" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="U4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7"/>
-      <c r="Y4" s="14" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="8"/>
+      <c r="Y4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AA4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AC4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -855,11 +855,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <f>IF(S6="valid",M6,ROUNDDOWN((M6 - Q6)/R6 + 1,0))</f>
+        <f>IF(S6="valid",M6,ROUNDDOWN((M6 - Q6 + S6*2)/R6 + 1,0))</f>
         <v>27</v>
       </c>
       <c r="V6" s="2">
-        <f>IF(S6="valid",N6,ROUNDDOWN((N6 - Q6)/R6 + 1,0))</f>
+        <f>IF(S6="valid",N6,ROUNDDOWN((N6 - Q6 + 2*S6)/R6 + 1,0))</f>
         <v>27</v>
       </c>
       <c r="W6" s="2">
@@ -939,11 +939,11 @@
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" ref="U7:U10" si="1">IF(S7="valid",M7,ROUNDDOWN((M7 - Q7)/R7 + 1,0))</f>
+        <f t="shared" ref="U7:U10" si="1">IF(S7="valid",M7,ROUNDDOWN((M7 - Q7 + S7*2)/R7 + 1,0))</f>
         <v>13</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" ref="V7:V10" si="2">IF(S7="valid",N7,ROUNDDOWN((N7 - Q7)/R7 + 1,0))</f>
+        <f t="shared" ref="V7:V10" si="2">IF(S7="valid",N7,ROUNDDOWN((N7 - Q7 + 2*S7)/R7 + 1,0))</f>
         <v>13</v>
       </c>
       <c r="W7" s="2">
@@ -951,14 +951,14 @@
         <v>256</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" ref="Y7:Y10" si="3">(H7*H7*E7)*G7</f>
+        <f t="shared" ref="Y7:Y9" si="3">(H7*H7*E7)*G7</f>
         <v>614400</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" ref="AA7:AA12" si="4" xml:space="preserve"> W7</f>
+        <f t="shared" ref="AA7:AA10" si="4" xml:space="preserve"> W7</f>
         <v>256</v>
       </c>
       <c r="AB7" s="3" t="s">
